--- a/biology/Zoologie/Callithomia_lenea/Callithomia_lenea.xlsx
+++ b/biology/Zoologie/Callithomia_lenea/Callithomia_lenea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callithomia lenea est une espèce d'insectes lépidoptères  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Callithomia.
 </t>
@@ -511,13 +523,85 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callithomia lenea a été décrit par Pieter Cramer en 1779 sous le nom initial de Papilio lenea[1].
-Noms vernaculaires
-Callithomia lenea se nomme Lenea Clarwing en anglais[2],[3].
-Sous-espèces
-Callithomia lenea lenea; présent au Venezuela, au Surinam et en Guyane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia lenea a été décrit par Pieter Cramer en 1779 sous le nom initial de Papilio lenea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia lenea se nomme Lenea Clarwing en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Callithomia lenea lenea; présent au Venezuela, au Surinam et en Guyane.
 Callithomia lenea agrippina (Hewitson, 1863); présent à Panama et en Colombie.
 Callithomia lenea alpho (C. &amp; R. Felder, 1865); présent au Venezuela
 Callithomia lenea epidero (Bates, 1862); présent au Brésil
@@ -529,71 +613,7 @@
 Callithomia lenea siparia (Kaye, 1922); présent à Trinité-et-Tobago
 Callithomia lenea travassosi d'Almeida, 1958; présent au Brésil
 Callithomia lenea xantho (C. &amp; R. Felder, 1860); présent au Brésil
-Callithomia lenea zelie (Guérin-Méneville, [1844]); présent en Bolivie, au Brésil et au Pérou[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callithomia_lenea</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callithomia lenea est un papillon aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures, d'une envergure d'environ 57 mm pour les mâles et d'environ 61 mm pour les femelles[4]. Sur le dessus les ailes sont de couleur verte transparente bordées de noir et séparées en deux grandes plages par une bande noire. 
-Le revers est semblable avec aux bords externes des ailes antérieures et postérieures une ligne submarginale de points blancs.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callithomia_lenea</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôte de sa chenille seraient des Solanaceae[2]. 
-</t>
+Callithomia lenea zelie (Guérin-Méneville, ); présent en Bolivie, au Brésil et au Pérou.</t>
         </is>
       </c>
     </row>
@@ -618,16 +638,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia lenea est un papillon aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures, d'une envergure d'environ 57 mm pour les mâles et d'environ 61 mm pour les femelles. Sur le dessus les ailes sont de couleur verte transparente bordées de noir et séparées en deux grandes plages par une bande noire. 
+Le revers est semblable avec aux bords externes des ailes antérieures et postérieures une ligne submarginale de points blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille seraient des Solanaceae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callithomia lenea est présent  à Panama, au Venezuela, à Trinité-et-Tobago, en Colombie, en Équateur, en Bolivie, au Pérou, en Uruguay, au Brésil, au Surinam, en et en Guyane[1].
-Biotope
-Callithomia lenea réside dans la forêt tropicale humide et dans la forêt humide des contreforts de la face est des Andes[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia lenea est présent  à Panama, au Venezuela, à Trinité-et-Tobago, en Colombie, en Équateur, en Bolivie, au Pérou, en Uruguay, au Brésil, au Surinam, en et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia lenea réside dans la forêt tropicale humide et dans la forêt humide des contreforts de la face est des Andes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_lenea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Callithomia lenea, sur Wikimedia CommonsCallithomia lenea, sur Wikispecies
 </t>
